--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 10.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 10.xlsx_with_dialog_acts.xlsx
@@ -688,12 +688,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
